--- a/math/TECE/notes2023.xlsx
+++ b/math/TECE/notes2023.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ibrahimalame/git/latex/math/TECE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984D6DBB-5D98-3F47-9CA6-980D830E473F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8CCFF6-E449-7041-BC0F-079AC2A3AE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1960" windowWidth="34820" windowHeight="21000" activeTab="1" xr2:uid="{8020BBFA-04A7-F240-9CCE-7775BF1CC07B}"/>
+    <workbookView xWindow="4300" yWindow="2260" windowWidth="36960" windowHeight="25200" activeTab="3" xr2:uid="{8020BBFA-04A7-F240-9CCE-7775BF1CC07B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="D" sheetId="2" r:id="rId2"/>
     <sheet name="K" sheetId="3" r:id="rId3"/>
     <sheet name="S" sheetId="4" r:id="rId4"/>
+    <sheet name="Feuil2" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -567,6 +568,427 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="AutoShape 1" descr="مجزرة الطحين بشارع الرشيد">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B177181-86A6-694C-7639-7B269CF3F0E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="825500" y="3860800"/>
+          <a:ext cx="12484100" cy="8585200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1027" name="AutoShape 3" descr="مجزرة الطحين بشارع الرشيد">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAEAF95C-95CB-E0BE-6FC6-944C50992C0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="1828800"/>
+          <a:ext cx="12484100" cy="8585200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>115384</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4699000" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{755D1536-1BED-43A7-0535-3707CA15E2E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11036300" y="1537784"/>
+          <a:ext cx="4699000" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ar" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>فاذهب عميقاً في دمي واذهب عميقاً في الطحين</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="5400" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="6E747A">
+                  <a:alpha val="43000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1028" name="Text Box 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69A74138-19C4-8FD7-3532-E2E34191F5F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12573000" y="4394200"/>
+          <a:ext cx="3517900" cy="1054100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="1">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>فاذهب عميقاً في دمي واذهب عميقاً في الطحين</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="12477481" cy="1130299"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A6E6F97-01CB-78AB-C872-B3594CA48683}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1346200" y="4419600"/>
+          <a:ext cx="12477481" cy="1130299"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="1">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="5400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>فاذهب عميقاً في دمي واذهب عميقاً في الطحين</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>410427</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>153485</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="10926646" cy="937629"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC1FB2B6-31A4-1434-E3D5-D679DFC7E44E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2886927" y="9297485"/>
+          <a:ext cx="10926646" cy="937629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="5400" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
+              <a:ln w="22225">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>فاذهب عميقاً في دمي واذهب عميقاً في الطحين</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="5400" b="1" cap="none" spc="0">
+            <a:ln w="22225">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>409699</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Image 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30C30AD1-3672-09CA-C7D3-943E767D92D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2819399" y="10528300"/>
+          <a:ext cx="10798300" cy="5753100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -868,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6983CE39-C0DE-CD40-AD61-A619F4522C7D}">
   <dimension ref="A1:AB71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:XFD69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6296,7 +6718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3382D06-2C0A-4644-943B-FC26931785B1}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -6875,7 +7297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A22CC57-85E8-C242-A149-50A70CD9E8BF}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B26"/>
     </sheetView>
   </sheetViews>
@@ -7176,4 +7598,19 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A9D4BF-D674-B949-B67F-E694DCC6A3A1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="Q46" sqref="Q46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>